--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhargav04\Documents\Massive MIMO programs\m-mimo-n-bmf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47CC8BB-DD8A-42B4-88A3-267CEAAFFA36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655EEE0-5E7C-4E88-82B1-7E587DA8498F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>FFT</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>speed up wrt timings</t>
+  </si>
+  <si>
+    <t>channel estimation and demodulation time</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,23 +721,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2.9504933536372799E-6</v>
+        <v>1.3459405181492899E-6</v>
       </c>
       <c r="F15" s="1">
-        <v>1.89999991562217E-5</v>
+        <v>1.9080016500083699E-5</v>
       </c>
       <c r="G15" s="1">
-        <v>1.73100088431966E-5</v>
+        <v>1.7217707863892401E-5</v>
       </c>
       <c r="H15" s="1">
-        <v>6.8920780904591097E-5</v>
+        <v>6.5662243287078996E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>5.24752636010817E-7</v>
+        <v>4.37227782867922E-7</v>
       </c>
       <c r="J15" s="1">
         <f>G15+E15+H15+I15</f>
-        <v>8.9706035737435795E-5</v>
+        <v>8.466311945198861E-5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,23 +745,23 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>6.9702955443062803E-6</v>
+        <v>1.46811817103298E-6</v>
       </c>
       <c r="F16" s="1">
-        <v>4.0999999328050803E-5</v>
+        <v>4.0180020732805099E-5</v>
       </c>
       <c r="G16" s="1">
-        <v>2.7259979106020199E-5</v>
+        <v>2.9371994969551499E-5</v>
       </c>
       <c r="H16">
-        <v>1.3201977708376901E-4</v>
+        <v>1.38699804665521E-4</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0099012115460901E-6</v>
+        <v>9.1792128387169203E-7</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ref="J16:J35" si="0">G16+E16+H16+I16</f>
-        <v>1.6725995294564156E-4</v>
+        <v>1.7045783908997719E-4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,23 +769,23 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>1.1673257176880699E-5</v>
+        <v>5.8600976444722602E-6</v>
       </c>
       <c r="F17" s="1">
-        <v>8.1999998656101498E-5</v>
+        <v>8.6820014985278303E-5</v>
       </c>
       <c r="G17" s="1">
-        <v>4.8469966714037603E-5</v>
+        <v>5.0866172387031798E-5</v>
       </c>
       <c r="H17">
-        <v>2.4990100064314902E-4</v>
+        <v>2.8044654754921799E-4</v>
       </c>
       <c r="I17" s="1">
-        <v>2.0198024230921899E-6</v>
+        <v>2.1325747638911699E-6</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>3.1206402695715951E-4</v>
+        <v>3.3930539234461321E-4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -790,23 +793,23 @@
         <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>3.4009910450549803E-5</v>
+        <v>1.9578823412302898E-5</v>
       </c>
       <c r="F18">
-        <v>1.9099999917671101E-4</v>
-      </c>
-      <c r="G18">
-        <v>1.0640998516464601E-4</v>
+        <v>1.7914001364260901E-4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.8820208222605302E-5</v>
       </c>
       <c r="H18">
-        <v>6.0913857305422404E-4</v>
+        <v>5.5951136164367199E-4</v>
       </c>
       <c r="I18" s="1">
-        <v>4.8217843868769697E-6</v>
+        <v>4.38307279182482E-6</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>7.5438025305629686E-4</v>
+        <v>6.8229346607040497E-4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,23 +817,23 @@
         <v>16</v>
       </c>
       <c r="E19" s="1">
-        <v>8.4722763858735602E-5</v>
+        <v>5.0830192776629701E-5</v>
       </c>
       <c r="F19">
-        <v>3.91000008676201E-4</v>
+        <v>3.7476004217751302E-4</v>
       </c>
       <c r="G19">
-        <v>2.0373013103380799E-4</v>
+        <v>2.0091848273295901E-4</v>
       </c>
       <c r="H19">
-        <v>1.2032970553264E-3</v>
+        <v>1.17398542352021E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>1.05049521152978E-5</v>
+        <v>9.8778264145948907E-6</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>1.5022549023342414E-3</v>
+        <v>1.4356119254443937E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,23 +847,23 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>4.3762136670011403E-7</v>
+        <v>2.2994905179984899E-7</v>
       </c>
       <c r="F20" s="1">
-        <v>3.0000001061125701E-6</v>
+        <v>8.1599991972325404E-6</v>
       </c>
       <c r="G20" s="1">
-        <v>1.4788814723942799E-6</v>
+        <v>1.5125732488741099E-6</v>
       </c>
       <c r="H20" s="1">
-        <v>2.8069694963050999E-5</v>
+        <v>2.71508306468604E-5</v>
       </c>
       <c r="I20" s="1">
-        <v>2.0857311255895199E-7</v>
+        <v>1.7602062030164199E-7</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>3.0194770914704346E-5</v>
+        <v>2.9069373567836E-5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,23 +871,23 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>5.8669462532634498E-7</v>
+        <v>4.35828411582406E-7</v>
       </c>
       <c r="F21" s="1">
-        <v>3.0000001061125701E-6</v>
+        <v>3.1399965791933899E-6</v>
       </c>
       <c r="G21" s="1">
-        <v>2.1927148736722302E-6</v>
+        <v>2.1093956092954601E-6</v>
       </c>
       <c r="H21" s="1">
-        <v>5.16582913405728E-5</v>
+        <v>4.9850037612486597E-5</v>
       </c>
       <c r="I21" s="1">
-        <v>2.16890526871794E-7</v>
+        <v>1.9952675245349401E-7</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>5.4654591366443169E-5</v>
+        <v>5.2594788385817958E-5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -892,23 +895,23 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2258539072718101E-6</v>
+        <v>6.5032071461246201E-7</v>
       </c>
       <c r="F22" s="1">
-        <v>6.00000021222513E-6</v>
+        <v>5.5799982874304996E-6</v>
       </c>
       <c r="G22" s="1">
-        <v>3.5627247143565901E-6</v>
+        <v>3.5120799566357202E-6</v>
       </c>
       <c r="H22">
-        <v>1.16603827336803E-4</v>
+        <v>1.1675894347718E-4</v>
       </c>
       <c r="I22" s="1">
-        <v>3.4357097433712598E-7</v>
+        <v>2.81261065993022E-7</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>1.2173597693276853E-4</v>
+        <v>1.212026052144212E-4</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -916,23 +919,23 @@
         <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>2.3902900920802499E-6</v>
+        <v>1.09228562905628E-6</v>
       </c>
       <c r="F23" s="1">
-        <v>1.2000000424450301E-5</v>
+        <v>1.13000032797572E-5</v>
       </c>
       <c r="G23" s="1">
-        <v>7.3501132646924799E-6</v>
+        <v>6.8251456468715299E-6</v>
       </c>
       <c r="H23">
-        <v>2.73178709903732E-4</v>
+        <v>2.5349517818540302E-4</v>
       </c>
       <c r="I23" s="1">
-        <v>5.3998957127987502E-7</v>
+        <v>4.5700528517045298E-7</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>2.834591028317846E-4</v>
+        <v>2.6186961474650129E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -940,23 +943,23 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>4.9494251470605403E-6</v>
+        <v>2.4846442556736301E-6</v>
       </c>
       <c r="F24" s="1">
-        <v>2.7000000045518401E-5</v>
+        <v>2.5679970349301601E-5</v>
       </c>
       <c r="G24" s="1">
-        <v>1.4059441127756101E-5</v>
+        <v>1.42949875225895E-5</v>
       </c>
       <c r="H24">
-        <v>5.3088588174432505E-4</v>
+        <v>5.6773796677589395E-4</v>
       </c>
       <c r="I24" s="1">
-        <v>9.3026756076142202E-7</v>
+        <v>9.1416421810208703E-7</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>5.5082501557990316E-4</v>
+        <v>5.8543176277225917E-4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -976,23 +979,23 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>2.5619797270337598E-6</v>
+        <v>1.6606732970103601E-5</v>
       </c>
       <c r="F26" s="1">
         <v>3.3000000598803999E-7</v>
       </c>
       <c r="G26" s="1">
-        <v>6.7029875935986597E-5</v>
+        <v>5.7285407820018002E-5</v>
       </c>
       <c r="H26">
-        <v>3.3959525171667299E-4</v>
+        <v>3.29392292769626E-4</v>
       </c>
       <c r="I26" s="1">
-        <v>1.5965053535183001E-5</v>
+        <v>4.4940603061149902E-7</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>4.2515216091487635E-4</v>
+        <v>4.0373383959035913E-4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1000,23 +1003,23 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>7.28732538846089E-6</v>
+        <v>1.9823788534267799E-5</v>
       </c>
       <c r="F27" s="1">
-        <v>3.7999998880877699E-7</v>
+        <v>3.5000002185370302E-7</v>
       </c>
       <c r="G27" s="1">
-        <v>7.0411784690804807E-5</v>
+        <v>5.9074616729048999E-5</v>
       </c>
       <c r="H27">
-        <v>3.3341321977786698E-4</v>
+        <v>3.3723041997291202E-4</v>
       </c>
       <c r="I27" s="1">
-        <v>2.78550360235386E-5</v>
+        <v>1.01188118151185E-6</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>4.3896736588067126E-4</v>
+        <v>4.1714070641774069E-4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1024,23 +1027,23 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>1.46387073982623E-5</v>
+        <v>2.7290010621072701E-5</v>
       </c>
       <c r="F28" s="1">
-        <v>3.9999997625273002E-7</v>
+        <v>3.7999998880877699E-7</v>
       </c>
       <c r="G28" s="1">
-        <v>7.4110917921643704E-5</v>
+        <v>6.3373467128258198E-5</v>
       </c>
       <c r="H28">
-        <v>3.4870512899942702E-4</v>
+        <v>3.4850768861360902E-4</v>
       </c>
       <c r="I28" s="1">
-        <v>5.1223443733761101E-5</v>
+        <v>2.0902971300529299E-6</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>4.8867819805309409E-4</v>
+        <v>4.4126146349299288E-4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1048,23 +1051,23 @@
         <v>8</v>
       </c>
       <c r="E29" s="1">
-        <v>6.5960382926277803E-5</v>
-      </c>
-      <c r="F29">
-        <v>1.2300000526011001E-4</v>
-      </c>
-      <c r="G29">
-        <v>2.5587985874153701E-4</v>
+        <v>4.9215286708204103E-5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.9999997625273002E-7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.8166686105541898E-5</v>
       </c>
       <c r="H29">
-        <v>3.4932667040266102E-4</v>
+        <v>3.7799286656081698E-4</v>
       </c>
       <c r="I29" s="1">
-        <v>4.2673277675930902E-6</v>
+        <v>4.2334668250987298E-6</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>6.7543423983806893E-4</v>
+        <v>4.9960830619966167E-4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,23 +1075,23 @@
         <v>16</v>
       </c>
       <c r="E30" s="1">
-        <v>9.6148505690507604E-5</v>
-      </c>
-      <c r="F30">
-        <v>2.09999998332933E-4</v>
-      </c>
-      <c r="G30">
-        <v>5.6210998445749305E-4</v>
+        <v>6.5302861912641701E-5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.8999999080478997E-7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.5112278864253299E-5</v>
       </c>
       <c r="H30">
-        <v>4.2715837480500303E-4</v>
+        <v>4.4233523658476802E-4</v>
       </c>
       <c r="I30" s="1">
-        <v>1.08118802017998E-5</v>
+        <v>1.03990141724353E-5</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>1.0962287451548034E-3</v>
+        <v>5.9314939153409828E-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,23 +1105,23 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1.8091017409460599E-5</v>
+        <v>1.3692187167180199E-5</v>
       </c>
       <c r="F31" s="1">
-        <v>4.8000001697801101E-5</v>
+        <v>3.0999999012237801E-7</v>
       </c>
       <c r="G31" s="1">
-        <v>3.2148389436770197E-5</v>
+        <v>4.72375650133472E-5</v>
       </c>
       <c r="H31">
-        <v>3.1178860808722702E-4</v>
+        <v>3.8350303657352903E-4</v>
       </c>
       <c r="I31" s="1">
-        <v>2.2776711716687701E-7</v>
+        <v>2.2523376230765301E-7</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>3.6225578205062469E-4</v>
+        <v>4.4465802251636411E-4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1126,23 +1129,23 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>1.8684741007746201E-5</v>
+        <v>1.3864137144992099E-5</v>
       </c>
       <c r="F32" s="1">
-        <v>5.09999990754295E-5</v>
+        <v>2.9000000267842599E-7</v>
       </c>
       <c r="G32" s="1">
-        <v>3.5435987228993299E-5</v>
+        <v>4.7415505832759697E-5</v>
       </c>
       <c r="H32">
-        <v>3.1715043587610098E-4</v>
+        <v>3.8811081321910002E-4</v>
       </c>
       <c r="I32" s="1">
-        <v>2.78311347301496E-7</v>
+        <v>3.1108828579817798E-7</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>3.7154947546014195E-4</v>
+        <v>4.4970154448264999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,23 +1153,23 @@
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>1.83956071850844E-5</v>
+        <v>1.47146292874822E-5</v>
       </c>
       <c r="F33" s="1">
-        <v>5.2999999752500999E-5</v>
+        <v>3.5000002185370302E-7</v>
       </c>
       <c r="G33" s="1">
-        <v>3.8855439925100702E-5</v>
+        <v>4.9686685088090599E-5</v>
       </c>
       <c r="H33">
-        <v>3.1653727637603901E-4</v>
+        <v>3.9771953015588202E-4</v>
       </c>
       <c r="I33" s="1">
-        <v>3.8771716504015801E-7</v>
+        <v>4.3395991156103301E-7</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>3.7417604065126425E-4</v>
+        <v>4.6255480444301584E-4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,23 +1177,23 @@
         <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>2.3797776520950699E-5</v>
+        <v>1.6210535250138502E-5</v>
       </c>
       <c r="F34" s="1">
-        <v>6.5000000176951303E-5</v>
+        <v>3.3000000598803999E-7</v>
       </c>
       <c r="G34" s="1">
-        <v>5.2224113460397402E-5</v>
+        <v>5.0861490308307098E-5</v>
       </c>
       <c r="H34">
-        <v>3.50240501575172E-4</v>
+        <v>4.0722481207922101E-4</v>
       </c>
       <c r="I34" s="1">
-        <v>6.0332968132570397E-7</v>
+        <v>5.9923934259131805E-7</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>4.2686572123784583E-4</v>
+        <v>4.7489607698025793E-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,23 +1201,23 @@
         <v>16</v>
       </c>
       <c r="E35" s="1">
-        <v>2.7879694243893E-5</v>
+        <v>2.3325883375946398E-5</v>
       </c>
       <c r="F35" s="1">
-        <v>6.5000000176951303E-5</v>
+        <v>3.6000000136482402E-7</v>
       </c>
       <c r="G35" s="1">
-        <v>7.3459756094962399E-5</v>
+        <v>5.8358866226626601E-5</v>
       </c>
       <c r="H35">
-        <v>3.77761840354651E-4</v>
+        <v>4.4632583740167298E-4</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0787003930090601E-6</v>
+        <v>1.07247740288585E-6</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>4.8017999108651544E-4</v>
+        <v>5.2908306440713183E-4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,131 +1234,131 @@
       </c>
       <c r="E38" s="1">
         <f>E15/E26</f>
-        <v>1.1516458629644732</v>
+        <v>8.1047881035501063E-2</v>
       </c>
       <c r="F38" s="1">
-        <f>(F15+H15+I15+E15)/(E26+F26+H26+I26)</f>
-        <v>0.25497403665404633</v>
+        <f t="shared" ref="F38:F47" si="1">(F15+H15+I15+E15)/(E26+F26+H26+I26)</f>
+        <v>0.24951213847113912</v>
       </c>
       <c r="G38" s="1">
         <f>G15/G26</f>
-        <v>0.25824318785443712</v>
+        <v>0.30056009931862243</v>
       </c>
       <c r="H38" s="1">
         <f>H15/H26</f>
-        <v>0.20294977787879157</v>
+        <v>0.19934359342464208</v>
       </c>
       <c r="I38" s="1">
         <f>I15/I26</f>
-        <v>3.2868830339616018E-2</v>
+        <v>0.9729014590057764</v>
       </c>
       <c r="J38" s="1">
         <f>J15/J26</f>
-        <v>0.21099748274688099</v>
+        <v>0.20970033014297348</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
-        <f t="shared" ref="E39:J39" si="1">E16/E27</f>
-        <v>0.95649571999946503</v>
+        <f t="shared" ref="E39:J39" si="2">E16/E27</f>
+        <v>7.4058405561336652E-2</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F47" si="2">(F16+H16+I16+E16)/(E27+F27+H27+I27)</f>
-        <v>0.49060047987080441</v>
+        <f t="shared" si="1"/>
+        <v>0.50574142751130391</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>0.38715080473709573</v>
+        <f t="shared" si="2"/>
+        <v>0.497201617139029</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
-        <v>0.39596443467876224</v>
+        <f t="shared" si="2"/>
+        <v>0.41129090512256294</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6255606012955209E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.90714334908395799</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="1"/>
-        <v>0.38103049553599266</v>
+        <f t="shared" si="2"/>
+        <v>0.40863391289191081</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <f t="shared" ref="E40:J40" si="3">E17/E28</f>
-        <v>0.79742403883736235</v>
+        <v>0.21473416503353177</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.83282243074568651</v>
+        <f t="shared" si="1"/>
+        <v>0.99204595302883725</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="3"/>
-        <v>0.65401924673614387</v>
+        <v>0.80264146324969798</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="3"/>
-        <v>0.71665421544046071</v>
+        <v>0.80470691669631855</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>3.9431211099166079E-2</v>
+        <v>1.0202256575060069</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="3"/>
-        <v>0.63858798735124722</v>
+        <v>0.76894408512063794</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E41" s="1">
         <f t="shared" ref="E41:J41" si="4">E18/E29</f>
-        <v>0.51561117358220598</v>
+        <v>0.39781996046035717</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5463339494906863</v>
+        <f t="shared" si="1"/>
+        <v>1.7659559339512805</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="4"/>
-        <v>0.41585916800169181</v>
+        <v>1.4496847927975085</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="4"/>
-        <v>1.7437505483107936</v>
+        <v>1.4802167213746869</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="4"/>
-        <v>1.1299306379731433</v>
+        <v>1.0353388777819468</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>1.1168818643798022</v>
+        <v>1.3656567707217735</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <f t="shared" ref="E42:J42" si="5">E19/E30</f>
-        <v>0.88116568479441248</v>
+        <v>0.77837618885106941</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2705042165291882</v>
+        <f t="shared" si="1"/>
+        <v>3.1038945613288598</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="5"/>
-        <v>0.36243820011564681</v>
+        <v>2.6749086270710682</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="5"/>
-        <v>2.8169810690840436</v>
+        <v>2.6540626349020928</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="5"/>
-        <v>0.97161196010561535</v>
+        <v>0.94988104168355469</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="5"/>
-        <v>1.3703845196306188</v>
+        <v>2.4203209949038023</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,135 +1370,382 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" ref="E43:J43" si="6">E20/E31</f>
-        <v>2.4189980961007881E-2</v>
+        <v>1.6794179702058896E-2</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3880638214339609E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.9801519705868985E-2</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="6"/>
-        <v>4.6001728183085504E-2</v>
+        <v>3.2020559240230208E-2</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="6"/>
-        <v>9.0027968421470123E-2</v>
+        <v>7.079691177791958E-2</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="6"/>
-        <v>0.91572969423034745</v>
+        <v>0.7815019315852415</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="6"/>
-        <v>8.3352074448006117E-2</v>
+        <v>6.5374674684445175E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E44" s="1">
         <f t="shared" ref="E44:J44" si="7">E21/E32</f>
-        <v>3.139966591365205E-2</v>
+        <v>3.1435667941284953E-2</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14327032877301935</v>
+        <f t="shared" si="1"/>
+        <v>0.13320561634815947</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="7"/>
-        <v>6.1878193473277276E-2</v>
+        <v>4.4487464010940996E-2</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="7"/>
-        <v>0.16288261183646549</v>
+        <v>0.12844279498171254</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="7"/>
-        <v>0.77930896089851298</v>
+        <v>0.64138304642862454</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="7"/>
-        <v>0.1470990944039329</v>
+        <v>0.11695487603077852</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <f t="shared" ref="E45:J45" si="8">E22/E33</f>
-        <v>6.6638404209118027E-2</v>
+        <v>4.4195521470982123E-2</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31976993308512225</v>
+        <f t="shared" si="1"/>
+        <v>0.29831829187726383</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>9.1691786818634421E-2</v>
+        <v>7.0684529475232197E-2</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="8"/>
-        <v>0.36837313024163487</v>
+        <v>0.29357105855832011</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="8"/>
-        <v>0.88613815769941584</v>
+        <v>0.64812683959971007</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="8"/>
-        <v>0.32534412604527946</v>
+        <v>0.26202863758029066</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
         <f t="shared" ref="E46:J46" si="9">E23/E34</f>
-        <v>0.10044174042797339</v>
+        <v>6.7381219201071582E-2</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.6553269408054424</v>
+        <f t="shared" si="1"/>
+        <v>0.62763124148604466</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="9"/>
-        <v>0.14074175275883274</v>
+        <v>0.13419083093121228</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="9"/>
-        <v>0.77997464221053181</v>
+        <v>0.62249443223044176</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="9"/>
-        <v>0.89501575671422151</v>
+        <v>0.76264232450794056</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="9"/>
-        <v>0.66404747143855025</v>
+        <v>0.55142509580551358</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E47" s="1">
         <f t="shared" ref="E47:J47" si="10">E24/E35</f>
-        <v>0.17752795650349371</v>
+        <v>0.10651876353955324</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="2"/>
-        <v>1.195126968204536</v>
+        <f t="shared" si="1"/>
+        <v>1.2669003713186746</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="10"/>
-        <v>0.19138970608044595</v>
+        <v>0.24494971281788408</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="10"/>
-        <v>1.4053454452835095</v>
+        <v>1.2720257695163535</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="10"/>
-        <v>0.86239660872507784</v>
+        <v>0.85238552872277795</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="10"/>
-        <v>1.1471219663558605</v>
+        <v>1.1065025553752497</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1024</v>
+      </c>
+      <c r="C51">
+        <v>101</v>
+      </c>
+      <c r="E51" s="1">
+        <f>F15+H15+I15+E15</f>
+        <v>8.6525428088179911E-5</v>
+      </c>
+      <c r="F51" s="1">
+        <f>J15</f>
+        <v>8.466311945198861E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <f t="shared" ref="E52:E71" si="11">F16+H16+I16+E16</f>
+        <v>1.8126586485323079E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" ref="F52:F71" si="12">J16</f>
+        <v>1.7045783908997719E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7525923494285973E-4</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="12"/>
+        <v>3.3930539234461321E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <f t="shared" si="11"/>
+        <v>7.626132714904087E-4</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="12"/>
+        <v>6.8229346607040497E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <f t="shared" si="11"/>
+        <v>1.6094534848889476E-3</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4356119254443937E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>1563</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5716799516194428E-5</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9069373567836E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <f t="shared" si="11"/>
+        <v>5.3625389355715884E-5</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="12"/>
+        <v>5.2594788385817958E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <f t="shared" si="11"/>
+        <v>1.23270523545216E-4</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="12"/>
+        <v>1.212026052144212E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6634447237938697E-4</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="12"/>
+        <v>2.6186961474650129E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <f t="shared" si="11"/>
+        <v>5.9681674559897125E-4</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="12"/>
+        <v>5.8543176277225917E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1024</v>
+      </c>
+      <c r="C62">
+        <v>101</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4677843177632916E-4</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="12"/>
+        <v>4.0373383959035913E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5841608971054538E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="12"/>
+        <v>4.1714070641774069E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7826799635354345E-4</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="12"/>
+        <v>4.4126146349299288E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <f t="shared" si="11"/>
+        <v>4.3184162007037252E-4</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9960830619966167E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <f t="shared" si="11"/>
+        <v>5.1852711266064976E-4</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9314939153409828E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>1563</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="11"/>
+        <v>3.9773045749313924E-4</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="12"/>
+        <v>4.4465802251636411E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <f t="shared" si="11"/>
+        <v>4.025760386525687E-4</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="12"/>
+        <v>4.4970154448264999E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <f t="shared" si="11"/>
+        <v>4.1321811937677894E-4</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="12"/>
+        <v>4.6255480444301584E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <f t="shared" si="11"/>
+        <v>4.2436458667793886E-4</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="12"/>
+        <v>4.7489607698025793E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <f t="shared" si="11"/>
+        <v>4.7108419818187004E-4</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="12"/>
+        <v>5.2908306440713183E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
